--- a/NDK.xlsx
+++ b/NDK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NDK数据生成" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="189">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通讯录联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标准手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -43,10 +39,6 @@
   </si>
   <si>
     <t>dinstinctName和distinctMobile都为20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dinstinctName和distinctMobile都为20但有一个非标准手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -64,36 +56,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dinstinctName为19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"num":"20","dinstinctName":"19",
 "distinctMobile":"20"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>distinctMobile为19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"num":"10","dinstinctName":"20",
 "distinctMobile":"19"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通讯录中有住宅所在地号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯录中无住宅所在地号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有住宅所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +75,6 @@
   </si>
   <si>
     <t>AF004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过去三个月中没有号码进入前十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -195,58 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有一笔申请到虚拟信用卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一笔申请到虚拟信用卡但mobileSign不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有申请成功的订单但不在同一天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一标识码累计申请成功2次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一标识码累计申请成功1次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与student是同学","time": "0",}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "mobileSign不同","time": "0"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与student是同学","time": "1",}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "2","isApply": "Y","orders": [{"userinfoNo": "与graduate0-6是同学","time": "0"},{"userinfoNo": "student已毕业","time": "0"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "与graduate0-6是同学","time": "0"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF005/AF006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人占比大于等于90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人占比小于90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"num":"9","dinstinctName":"9",
 "distinctMobile":"9"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,7 +173,444 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"userinfoNo": "student已毕业","addrList": [{"num": "10","dinstinctName": "10","distinctMobile": "10"}]}</t>
+    <t>首次借款时只登陆过一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次借款时登陆过多次同一设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次借款时登陆过多次不同设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loginNum":"2",
+"isSame":"Y"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loginNum":"2",
+"isSame":"N"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF008</t>
+  </si>
+  <si>
+    <t>有一笔申请到牛大咖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfoNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinstinctName和distinctMobile都为20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduate7+</t>
+  </si>
+  <si>
+    <t>AF001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF001_dinstinctName和distinctMobile都为20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUDIT_PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控审批订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinstinctName和distinctMobile都为20但有一个非标准手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinstinctName和distinctMobile都为20但有一个非标准手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUDIT_RETURN</t>
+  </si>
+  <si>
+    <t>dinstinctName和distinctMobile都为20但有一个非手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF001_dinstinctName和distinctMobile都为20但有一个非标准手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinstinctName为19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF001_dinstinctName和distinctMobile都为20但有一个非手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF001_dinstinctName为19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinctMobile为19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF001_distinctMobile为19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinctMobile为19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF001_dinstinctName和distinctMobile都为20但有一个非手机号（有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史订单中有逾期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF001_dinstinctName和distinctMobile都为20但有一个非手机号（无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史订单中无逾期</t>
+  </si>
+  <si>
+    <t>通讯录中有住宅所在地号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录中无住宅所在地号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录中无住宅所在地号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF001_通讯录中无住宅所在地号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录中有住宅所在地号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF001_通讯录中有住宅所在地号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有住宅所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF001_通讯录中无住宅所在地号码（有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF001_通讯录中无住宅所在地号码（无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去三个月中没有号码进入前十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去三个月中没有号码进入前十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF004_过去三个月中没有号码进入前十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去三个月中都有号码进入前十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF004_过去三个月中都有号码进入前十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去三个月中有号码进入正好排第十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF004_过去三个月中有号码进入正好排第十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去三个月中有一个月两个及以上号码进入前十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF004_过去三个月中有一个月两个及以上号码进入前十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去三个月中有两个月两个及以上号码进入前十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF004_过去三个月中有两个月两个及以上号码进入前十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去三个月中有号码进入前十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF004_过去三个月中有号码进入前十一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去三个月中都有号码进入前十但号码非标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF004_过去三个月中都有号码进入前十但号码非标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去三个月中都有号码进入前十但号码非手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF004_过去三个月中都有号码进入前十但号码非手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去三个月中被叫次数进入前十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF004_过去三个月中被叫次数进入前十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF004_过去三个月中没有号码进入前十（有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF004_过去三个月中没有号码进入前十（无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF005/AF006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一笔申请到牛大咖但mobileSign不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一笔申请到牛大咖但mobileSign为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一笔申请到牛大咖但mobileSign为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "0", "status": "SETTLED" }</t>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "0", "status": "SETTLED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "0", "status": "SETTLED" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "牛大咖订单mobileSign不同","time": "0"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "牛大咖订单mobileSign为空","time": "0"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一笔申请到触宝mobileSign相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一笔申请到触宝mobileSign相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF005_有一笔申请到牛大咖但mobileSign不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF005_有一笔申请到牛大咖但mobileSign为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF005_有一笔申请到牛大咖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有未申请成功的牛大咖订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有申请成功的订单但不在同一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有未申请成功的牛大咖订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF005_有一笔申请到触宝mobileSign相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有申请成功的订单但不在同一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF005_有申请成功的订单但不在同一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF005_有未申请成功的牛大咖订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史订单中有逾期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF005_有一笔申请到牛大咖（历史订单中有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史订单中无逾期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF005_有一笔申请到牛大咖（历史订单中无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "当天创建的未成功订单（牛大咖）","time": "0"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "非当天创建的待还订单（牛大咖）","time": "1",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "牛大咖订单mobileSign相同","time": "0",}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一标识码累计申请成功2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF006_同一标识码累计申请成功2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "2","isApply": "Y","orders": [{"userinfoNo": "牛大咖订单mobileSign相同","time": "0"},{"userinfoNo": "非当天创建的待还订单（牛大咖）","time": "0"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一标识码累计申请成功1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一标识码累计申请成功1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF006_同一标识码累计申请成功1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一标识码累计申请2次成功1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一标识码累计申请2次成功1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF006_同一标识码累计申请2次成功1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "2","isApply": "Y","orders": [{"userinfoNo": "牛大咖订单mobileSign相同","time": "0"},{"userinfoNo": "当天创建的未成功订单（牛大咖）","time": "0"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userinfoNo": "当天创建的未成功订单（牛大咖）","addrList": [{"num": "10","dinstinctName": "10","distinctMobile": "10"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人占比小于90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -265,15 +618,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>联系人占比小于90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人占比大于等于90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF007_联系人占比小于90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userinfoNo": "牛大咖订单mobileSign相同","addrList": [{"num": "10","dinstinctName": "10","distinctMobile": "10"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF007_联系人占比大于等于90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人占比大于等于90但没有成功订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "非当天创建的待还订单（牛大咖）","time": "0"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人占比大于等于90但不是牛大咖订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "触宝订单mobileSign相同","time": "0"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userinfoNo": "触宝订单mobileSign相同","addrList": [{"num": "10","dinstinctName": "10","distinctMobile": "10"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人占比大于等于90但不是牛大咖订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF007_联系人占比大于等于90但没有成功订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF007_联系人占比大于等于90但不是牛大咖订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF006_同一标识码累计申请成功2次（历史订单中有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF007_联系人占比大于等于90（历史订单中无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>首次借款时只登陆过一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AF008_首次借款时只登陆过一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>首次借款时登陆过多次同一设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AF008_首次借款时登陆过多次同一设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>首次借款时登陆过多次不同设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF008_首次借款时登陆过多次不同设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,17 +719,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"loginNum":"2",
-"isSame":"Y"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"loginNum":"2",
-"isSame":"N"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF008</t>
+    <t>AF007_联系人占比大于等于90（历史订单中有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF008_首次借款时登陆过多次同一设备（历史订单中有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF008_首次借款时登陆过多次不同设备（历史订单中无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF008_首次借款时登陆过多次不同设备（有成功的牛小宝订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的牛大款订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF008_首次借款时登陆过多次不同设备（有成功的牛大款订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败的牛大款订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF008_首次借款时登陆过多次不同设备（有失败的牛大款订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"calling":[{"homeRecordsNo":"0",
+"otherRecordsNo":"0"}],"called":
+"[{"homeRecordsNo":"2","otherRecordsNo":"8"}]"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅地被叫占比20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅地被叫占比20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF013_住宅地被叫占比20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -355,6 +840,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,342 +1148,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="59.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
-    <col min="3" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.125" customWidth="1"/>
-    <col min="6" max="6" width="53.75" customWidth="1"/>
-    <col min="7" max="7" width="48.375" customWidth="1"/>
-    <col min="8" max="8" width="24.5" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="2" max="2" width="69.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
+    <col min="4" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.125" customWidth="1"/>
+    <col min="7" max="7" width="60.75" customWidth="1"/>
+    <col min="8" max="8" width="48.375" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="50.375" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="B17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>122</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>65</v>
+        <v>150</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1004,23 +1661,1047 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="59.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.375" customWidth="1"/>
+    <col min="1" max="1" width="72.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NDK.xlsx
+++ b/NDK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="250">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -723,6 +723,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>成功的牛小宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF008_首次借款时登陆过多次不同设备（有成功的牛小宝订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功的牛大款订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败的牛大款订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "calling": [ { "homeRecordsNum": "0", "otherRecordsNum": "0" } ], "called": [ { "homeRecordsNum": "2", "otherRecordsNum": "8" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅地被叫占比小于20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "calling": [ { "homeRecordsNum": "0", "otherRecordsNum": "0" } ], "called": [ { "homeRecordsNum": "1", "otherRecordsNum": "9" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF013_住宅地被叫占比小于20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AF008_首次借款时登陆过多次同一设备（历史订单中有逾期）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,15 +771,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功的牛小宝订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF008_首次借款时登陆过多次不同设备（有成功的牛小宝订单）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功的牛大款订单</t>
+    <t>AF013_住宅地被叫占比等于20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅地被叫占比等于20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅地被叫占比大于20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF013_住宅地被叫占比大于20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅地被叫占比等于20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅地被叫占比小于20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "calling": [ { "homeRecordsNum": "0", "otherRecordsNum": "0" } ], "called": [ { "homeRecordsNum": "3", "otherRecordsNum": "7" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅地被叫占比大于20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅地主叫占比等于20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "calling": [ { "homeRecordsNum": "2", "otherRecordsNum": "8" } ], "called": [ { "homeRecordsNum": "0", "otherRecordsNum": "0" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅地主叫占比等于20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF013_住宅地主叫占比等于20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -747,37 +823,210 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>失败的牛大款订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AF008_首次借款时登陆过多次不同设备（有失败的牛大款订单）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AF014_90天内主叫过紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF014_90天内被叫过紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF014_90天外主叫过联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90天内主叫过紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90天内被叫过紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90天外主叫过联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"day":"90","type":"主叫",
+"isContactor":"Y"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"day":"90","type":"被叫",
+"isContactor":"Y"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"day":"91","type":"主叫",
+"isContactor":"Y"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF014</t>
+  </si>
+  <si>
+    <t>AF014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"day":"91","type":"主叫",
+"isContactor":"Y"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90天外主叫过紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF014_90天外主叫过紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史订单中有逾期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF013_住宅地被叫占比小于20%（历史订单中有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF013_住宅地被叫占比小于20%（历史订单中无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF013_住宅地被叫占比小于20%（有失败的牛大款订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF013_住宅地被叫占比小于20%（有成功的牛小宝订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AF013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"calling":[{"homeRecordsNo":"0",
-"otherRecordsNo":"0"}],"called":
-"[{"homeRecordsNo":"2","otherRecordsNo":"8"}]"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅地被叫占比20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅地被叫占比20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF013_住宅地被叫占比20%</t>
+    <t>AF014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"l1mwdcnTtimesout":"0",
+"l3mwdcnTnumsconF":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015/AF016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近一个月主叫催收号码次数为3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"l1mwdcnTtimesout":"3",
+"l3mwdcnTnumsconF":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"l1mwdcnTtimesout":"4",
+"l3mwdcnTnumsconF":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近一个月主叫催收号码次数为4次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近三个月与几家委外催收机构号码有过联系0次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近三个月与几家委外催收机构号码有过联系1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"l1mwdcnTtimesout":"0",
+"l3mwdcnTnumsconF":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为4次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF016_近三个月与几家委外催收机构号码有过联系0次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF016_近三个月与几家委外催收机构号码有过联系1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF014_90天外主叫过紧急联系人（历史订单中有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF014_90天外主叫过紧急联系人（历史订单中无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF014_90天外主叫过紧急联系人（有失败的牛大款订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF014_90天外主叫过紧急联系人（有成功的牛小宝订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为4次（历史订单中有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF016_近三个月与几家委外催收机构号码有过联系1次（历史订单中有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为4次（历史订单中无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF016_近三个月与几家委外催收机构号码有过联系1次（历史订单中无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为4次（有失败的牛大款订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF016_近三个月与几家委外催收机构号码有过联系1次（有失败的牛大款订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为4次（有成功的牛小宝订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF016_近三个月与几家委外催收机构号码有过联系1次（有成功的牛小宝订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUDIT_RETURN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1148,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1164,11 +1413,12 @@
     <col min="7" max="7" width="60.75" customWidth="1"/>
     <col min="8" max="8" width="48.375" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
-    <col min="10" max="10" width="50.375" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="10" max="10" width="52.625" customWidth="1"/>
+    <col min="11" max="11" width="29.125" customWidth="1"/>
+    <col min="12" max="12" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1197,10 +1447,16 @@
         <v>165</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -1214,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -1228,7 +1484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -1242,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -1253,7 +1509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -1264,7 +1520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -1275,7 +1531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -1286,7 +1542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
@@ -1305,7 +1561,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1324,7 +1580,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1343,7 +1599,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1362,7 +1618,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1381,7 +1637,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1400,7 +1656,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1419,7 +1675,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1633,7 +1889,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -1644,12 +1900,136 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1661,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1707,7 +2087,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>53</v>
@@ -2584,7 +2964,7 @@
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -2604,7 +2984,7 @@
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
@@ -2624,13 +3004,13 @@
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>171</v>
@@ -2644,13 +3024,13 @@
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B49" s="4">
         <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>171</v>
@@ -2664,13 +3044,13 @@
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B50" s="4">
         <v>0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>171</v>
@@ -2682,24 +3062,564 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" s="4">
+        <v>0</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/NDK.xlsx
+++ b/NDK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NDK数据生成" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="302">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -998,35 +998,247 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AF015_近一个月主叫催收号码次数为4次（历史订单中无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为4次（有失败的牛大款订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为4次（有成功的牛小宝订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUDIT_RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄小于18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄等于18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄等于50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄小于50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU002_年龄小于18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU002_年龄等于18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU002_年龄等于50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU002_年龄小于50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AF016_近三个月与几家委外催收机构号码有过联系1次（历史订单中有逾期）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AF015_近一个月主叫催收号码次数为4次（历史订单中无逾期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AF016_近三个月与几家委外催收机构号码有过联系1次（历史订单中无逾期）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AF015_近一个月主叫催收号码次数为4次（有失败的牛大款订单）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AF016_近三个月与几家委外催收机构号码有过联系1次（有失败的牛大款订单）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AF015_近一个月主叫催收号码次数为4次（有成功的牛小宝订单）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AF016_近三个月与几家委外催收机构号码有过联系1次（有成功的牛小宝订单）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AUDIT_RETURN</t>
+    <t>用户在外部黑名单(全部匹配)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在外部黑名单（前后六位匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不在外部黑名单（前六位不匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不在外部黑名单（后六位不匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不在外部黑名单（无数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"custName":"王宁",
+"idNo":"220322199901297363"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"custName":"王宁",
+"idNo":"220322199102297363"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"custName":"王宁",
+"idNo":"222322199102297363"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"custName":"王宁",
+"idNo":"220322199102297362"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在外部黑名单(全部匹配)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU004_用户在外部黑名单(全部匹配)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU004_用户在外部黑名单（前后六位匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU004_用户不在外部黑名单（前六位不匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU004_用户不在外部黑名单（后六位不匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU004_用户不在外部黑名单（无数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU002_年龄小于18（历史订单中有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU002_年龄小于18（历史订单中无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU002_年龄小于18（有失败的牛大款订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU002_年龄小于18（有成功的牛小宝订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不在内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU005_用户在内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU005_用户不在内部黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU004_用户在外部黑名单（前后六位匹配）（历史订单中有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU005_用户在内部黑名单（历史订单中有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU004_用户在外部黑名单（前后六位匹配）（历史订单中无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU005_用户在内部黑名单（历史订单中无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备在黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备不在黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "0", "status": "SETTLED","deviceCode":"999999999" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU007_设备在黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU007_设备不在黑名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1070,7 +1282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1095,6 +1307,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1397,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1416,9 +1631,11 @@
     <col min="10" max="10" width="52.625" customWidth="1"/>
     <col min="11" max="11" width="29.125" customWidth="1"/>
     <col min="12" max="12" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.5" customWidth="1"/>
+    <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1455,8 +1672,20 @@
       <c r="L1" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -1470,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -1484,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -1498,7 +1727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -1509,7 +1738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -1520,7 +1749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -1531,7 +1760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -1542,7 +1771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
@@ -1561,7 +1790,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1580,7 +1809,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1599,7 +1828,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1618,7 +1847,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,7 +1866,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1656,7 +1885,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1675,7 +1904,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1889,7 +2118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -1900,7 +2129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>188</v>
       </c>
@@ -1911,7 +2140,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>192</v>
       </c>
@@ -1922,7 +2151,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>194</v>
       </c>
@@ -1933,7 +2162,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>195</v>
       </c>
@@ -1944,7 +2173,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>204</v>
       </c>
@@ -1955,7 +2184,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>205</v>
       </c>
@@ -1966,7 +2195,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>206</v>
       </c>
@@ -1977,7 +2206,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>213</v>
       </c>
@@ -1988,7 +2217,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>224</v>
       </c>
@@ -1999,7 +2228,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>227</v>
       </c>
@@ -2010,7 +2239,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>228</v>
       </c>
@@ -2021,7 +2250,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>229</v>
       </c>
@@ -2030,6 +2259,147 @@
       </c>
       <c r="L45" s="5" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M46" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M47" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M48" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M49" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2041,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2087,7 +2457,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>53</v>
@@ -3444,7 +3814,7 @@
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B70" s="4">
         <v>0</v>
@@ -3464,7 +3834,7 @@
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B71" s="4">
         <v>0</v>
@@ -3479,12 +3849,12 @@
         <v>231</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B72" s="4">
         <v>0</v>
@@ -3499,7 +3869,7 @@
         <v>231</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3539,12 +3909,12 @@
         <v>232</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="B75" s="4">
         <v>0</v>
@@ -3564,7 +3934,7 @@
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B76" s="4">
         <v>0</v>
@@ -3584,7 +3954,7 @@
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B77" s="4">
         <v>0</v>
@@ -3604,7 +3974,7 @@
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B78" s="4">
         <v>0</v>
@@ -3620,11 +3990,432 @@
       </c>
       <c r="F78" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/NDK.xlsx
+++ b/NDK.xlsx
@@ -2413,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:B99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2457,7 +2457,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>53</v>

--- a/NDK.xlsx
+++ b/NDK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NDK数据生成" sheetId="1" r:id="rId1"/>
@@ -2457,7 +2457,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>53</v>

--- a/NDK.xlsx
+++ b/NDK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NDK数据生成" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="328">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,10 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"allCount": "2","isApply": "Y","orders": [{"userinfoNo": "牛大咖订单mobileSign相同","time": "0"},{"userinfoNo": "非当天创建的待还订单（牛大咖）","time": "0"}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同一标识码累计申请成功1次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,10 +639,6 @@
   </si>
   <si>
     <t>联系人占比大于等于90但没有成功订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "非当天创建的待还订单（牛大咖）","time": "0"}]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1239,6 +1231,118 @@
   </si>
   <si>
     <t>AU007_设备不在黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "2","isApply": "Y","orders": [{"userinfoNo": "牛大咖订单mobileSign相同","time": "0"},{"userinfoNo": "非当天创建的待还订单（牛大咖）","time": "0"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"allCount": "1","isApply": "Y","orders": [{"userinfoNo": "非当天创建的待还订单（牛大咖）","time": "0"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "projectName": "牛大咖", "loanTerm": "1", "loanSubSrc": "NDK", "time": "0", "status": "SETTLED","deviceCode":"999999999" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历白名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄等于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄小于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄小于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU011_年龄小于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄等于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU011_年龄等于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历白名单(手机号段一线城市)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历白名单(手机号段二线城市)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄小于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU011_年龄小于20(非白名单用户)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU012_年龄小于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU012_年龄等于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU012_年龄小于23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU012_年龄等于23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历白名单(手机号段二线城市)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU012_年龄小于23(手机号段二线城市)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU012_年龄等于20(手机号段二线城市)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduate0-6一线城市本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄等于20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU012_年龄等于20(非白名单用户)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄小于22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄等于22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1612,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1658,31 +1762,31 @@
         <v>107</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1982,7 +2086,7 @@
         <v>111</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -2015,34 +2119,34 @@
         <v>111</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>111</v>
@@ -2051,12 +2155,12 @@
         <v>35</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>111</v>
@@ -2065,12 +2169,12 @@
         <v>36</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>111</v>
@@ -2079,12 +2183,12 @@
         <v>35</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>111</v>
@@ -2093,7 +2197,7 @@
         <v>35</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -2104,7 +2208,7 @@
         <v>111</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -2131,139 +2235,139 @@
     </row>
     <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>111</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>111</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>111</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>111</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>111</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>111</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>111</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>111</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>111</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>111</v>
@@ -2274,132 +2378,176 @@
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>111</v>
       </c>
       <c r="M47" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>111</v>
       </c>
       <c r="M48" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>111</v>
       </c>
       <c r="M49" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M50" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M51" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M52" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M53" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N54" s="4"/>
     </row>
     <row r="55" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="O55" s="4" t="s">
-        <v>285</v>
+      <c r="N55" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="O56" s="4" t="s">
-        <v>286</v>
+      <c r="N56" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P58" s="4" t="s">
-        <v>286</v>
+      <c r="P61" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2411,17 +2559,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="72.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3074,7 +3222,7 @@
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
@@ -3083,7 +3231,7 @@
         <v>53</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>137</v>
@@ -3094,7 +3242,7 @@
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -3103,7 +3251,7 @@
         <v>53</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>137</v>
@@ -3114,7 +3262,7 @@
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
@@ -3134,7 +3282,7 @@
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -3154,7 +3302,7 @@
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
@@ -3163,10 +3311,10 @@
         <v>53</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>61</v>
@@ -3174,7 +3322,7 @@
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
@@ -3183,10 +3331,10 @@
         <v>53</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>56</v>
@@ -3194,7 +3342,7 @@
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
@@ -3203,10 +3351,10 @@
         <v>53</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>56</v>
@@ -3214,7 +3362,7 @@
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B40" s="4">
         <v>0</v>
@@ -3223,10 +3371,10 @@
         <v>53</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>56</v>
@@ -3234,7 +3382,7 @@
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -3243,10 +3391,10 @@
         <v>128</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>61</v>
@@ -3254,7 +3402,7 @@
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -3263,10 +3411,10 @@
         <v>130</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>61</v>
@@ -3274,7 +3422,7 @@
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -3283,10 +3431,10 @@
         <v>53</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>56</v>
@@ -3294,7 +3442,7 @@
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
@@ -3303,7 +3451,7 @@
         <v>53</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>42</v>
@@ -3314,7 +3462,7 @@
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
@@ -3323,7 +3471,7 @@
         <v>53</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>42</v>
@@ -3334,7 +3482,7 @@
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -3343,7 +3491,7 @@
         <v>128</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>42</v>
@@ -3354,7 +3502,7 @@
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
@@ -3363,7 +3511,7 @@
         <v>130</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>42</v>
@@ -3374,16 +3522,16 @@
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>42</v>
@@ -3394,16 +3542,16 @@
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B49" s="4">
         <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>42</v>
@@ -3414,16 +3562,16 @@
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B50" s="4">
         <v>0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>42</v>
@@ -3434,7 +3582,7 @@
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B51" s="4">
         <v>0</v>
@@ -3443,10 +3591,10 @@
         <v>53</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>56</v>
@@ -3454,7 +3602,7 @@
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B52" s="4">
         <v>0</v>
@@ -3463,10 +3611,10 @@
         <v>53</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>61</v>
@@ -3474,7 +3622,7 @@
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B53" s="4">
         <v>0</v>
@@ -3483,10 +3631,10 @@
         <v>53</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>61</v>
@@ -3494,7 +3642,7 @@
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B54" s="4">
         <v>0</v>
@@ -3503,10 +3651,10 @@
         <v>128</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>56</v>
@@ -3514,7 +3662,7 @@
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B55" s="4">
         <v>0</v>
@@ -3523,10 +3671,10 @@
         <v>130</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>56</v>
@@ -3534,7 +3682,7 @@
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B56" s="4">
         <v>0</v>
@@ -3543,10 +3691,10 @@
         <v>53</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>61</v>
@@ -3554,19 +3702,19 @@
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B57" s="4">
         <v>0</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>61</v>
@@ -3574,19 +3722,19 @@
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B58" s="4">
         <v>0</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>61</v>
@@ -3594,7 +3742,7 @@
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B59" s="4">
         <v>0</v>
@@ -3603,10 +3751,10 @@
         <v>53</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>56</v>
@@ -3614,7 +3762,7 @@
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B60" s="4">
         <v>0</v>
@@ -3623,10 +3771,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>61</v>
@@ -3634,7 +3782,7 @@
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B61" s="4">
         <v>0</v>
@@ -3643,10 +3791,10 @@
         <v>53</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>61</v>
@@ -3654,7 +3802,7 @@
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B62" s="4">
         <v>0</v>
@@ -3663,10 +3811,10 @@
         <v>53</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>61</v>
@@ -3674,19 +3822,19 @@
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B63" s="4">
         <v>0</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>56</v>
@@ -3694,7 +3842,7 @@
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B64" s="4">
         <v>0</v>
@@ -3703,10 +3851,10 @@
         <v>130</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>56</v>
@@ -3714,19 +3862,19 @@
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B65" s="4">
         <v>0</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>61</v>
@@ -3734,19 +3882,19 @@
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B66" s="4">
         <v>0</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>61</v>
@@ -3754,7 +3902,7 @@
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B67" s="4">
         <v>0</v>
@@ -3763,10 +3911,10 @@
         <v>53</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>56</v>
@@ -3774,7 +3922,7 @@
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B68" s="4">
         <v>0</v>
@@ -3783,10 +3931,10 @@
         <v>53</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>61</v>
@@ -3794,19 +3942,19 @@
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B69" s="4">
         <v>0</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>56</v>
@@ -3814,7 +3962,7 @@
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B70" s="4">
         <v>0</v>
@@ -3823,10 +3971,10 @@
         <v>130</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>56</v>
@@ -3834,47 +3982,47 @@
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="B71" s="4">
-        <v>0</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B72" s="4">
         <v>0</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B73" s="4">
         <v>0</v>
@@ -3883,10 +4031,10 @@
         <v>53</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>56</v>
@@ -3894,7 +4042,7 @@
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B74" s="4">
         <v>0</v>
@@ -3903,30 +4051,30 @@
         <v>53</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B75" s="4">
         <v>0</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>56</v>
@@ -3934,7 +4082,7 @@
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B76" s="4">
         <v>0</v>
@@ -3943,10 +4091,10 @@
         <v>130</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>56</v>
@@ -3954,19 +4102,19 @@
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B77" s="4">
         <v>0</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>61</v>
@@ -3974,19 +4122,19 @@
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B78" s="4">
         <v>0</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>61</v>
@@ -3994,7 +4142,7 @@
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B79" s="4">
         <v>0</v>
@@ -4003,10 +4151,10 @@
         <v>53</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>61</v>
@@ -4014,7 +4162,7 @@
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B80" s="4">
         <v>0</v>
@@ -4023,10 +4171,10 @@
         <v>53</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>56</v>
@@ -4034,7 +4182,7 @@
     </row>
     <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B81" s="4">
         <v>0</v>
@@ -4043,10 +4191,10 @@
         <v>53</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>61</v>
@@ -4054,7 +4202,7 @@
     </row>
     <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B82" s="4">
         <v>0</v>
@@ -4063,10 +4211,10 @@
         <v>53</v>
       </c>
       <c r="D82" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>56</v>
@@ -4074,7 +4222,7 @@
     </row>
     <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B83" s="4">
         <v>0</v>
@@ -4083,10 +4231,10 @@
         <v>71</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>61</v>
@@ -4094,7 +4242,7 @@
     </row>
     <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B84" s="4">
         <v>0</v>
@@ -4103,10 +4251,10 @@
         <v>130</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>61</v>
@@ -4114,19 +4262,19 @@
     </row>
     <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B85" s="4">
         <v>0</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>61</v>
@@ -4134,19 +4282,19 @@
     </row>
     <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B86" s="4">
         <v>0</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>61</v>
@@ -4154,7 +4302,7 @@
     </row>
     <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B87" s="4">
         <v>0</v>
@@ -4163,10 +4311,10 @@
         <v>53</v>
       </c>
       <c r="D87" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>61</v>
@@ -4174,7 +4322,7 @@
     </row>
     <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B88" s="4">
         <v>0</v>
@@ -4183,10 +4331,10 @@
         <v>53</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>61</v>
@@ -4194,7 +4342,7 @@
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B89" s="4">
         <v>0</v>
@@ -4203,10 +4351,10 @@
         <v>53</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>56</v>
@@ -4214,7 +4362,7 @@
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B90" s="4">
         <v>0</v>
@@ -4223,10 +4371,10 @@
         <v>53</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>56</v>
@@ -4234,7 +4382,7 @@
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B91" s="4">
         <v>0</v>
@@ -4243,10 +4391,10 @@
         <v>53</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>56</v>
@@ -4254,7 +4402,7 @@
     </row>
     <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B92" s="4">
         <v>0</v>
@@ -4263,10 +4411,10 @@
         <v>71</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>61</v>
@@ -4274,7 +4422,7 @@
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B93" s="4">
         <v>0</v>
@@ -4283,10 +4431,10 @@
         <v>130</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>61</v>
@@ -4294,7 +4442,7 @@
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B94" s="4">
         <v>0</v>
@@ -4303,10 +4451,10 @@
         <v>53</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>61</v>
@@ -4314,7 +4462,7 @@
     </row>
     <row r="95" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B95" s="4">
         <v>0</v>
@@ -4323,10 +4471,10 @@
         <v>53</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>56</v>
@@ -4334,7 +4482,7 @@
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B96" s="4">
         <v>0</v>
@@ -4343,10 +4491,10 @@
         <v>71</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>61</v>
@@ -4354,7 +4502,7 @@
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B97" s="4">
         <v>0</v>
@@ -4363,10 +4511,10 @@
         <v>130</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>61</v>
@@ -4374,7 +4522,7 @@
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B98" s="4">
         <v>0</v>
@@ -4383,10 +4531,10 @@
         <v>53</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>61</v>
@@ -4394,7 +4542,7 @@
     </row>
     <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B99" s="4">
         <v>0</v>
@@ -4403,12 +4551,212 @@
         <v>53</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F99" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B104" s="4">
+        <v>0</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B108" s="4">
+        <v>0</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>56</v>
       </c>
     </row>

--- a/NDK.xlsx
+++ b/NDK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="14805" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NDK数据生成" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="350">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,18 +94,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "type":"主叫","records": [ { "Month": "1", "NumTopTen": "2", "MinRank": "2" }, { "Month": "2", "NumTopTen": "2", "MinRank": "2" }, { "Month": "3", "NumTopTen": "2", "MinRank": "2" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>过去三个月中有号码进入正好排第十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "type":"主叫","records": [ { "Month": "1", "NumTopTen": "2", "MinRank": "10" }, { "Month": "2", "NumTopTen": "2", "MinRank": "2" }, { "Month": "3", "NumTopTen": "2", "MinRank": "2" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>过去三个月中有一个月两个及以上号码进入前十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,19 +118,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "type":"主叫","records": [ { "Month": "1", "NumTopTen": "2", "MinRank": "11" }, { "Month": "2", "NumTopTen": "2", "MinRank": "2" }, { "Month": "3", "NumTopTen": "2", "MinRank": "2" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>过去三个月中都有号码进入前十但号码非标准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>非标准手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"type":"主叫", "records": [ { "Month": "1", "NumTopTen": "2", "MinRank": "2" }, { "Month": "2", "NumTopTen": "2", "MinRank": "2" }, { "Month": "3", "NumTopTen": "2", "MinRank": "2" } ] }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "type":"被叫","records": [ { "Month": "1", "NumTopTen": "2", "MinRank": "2" }, { "Month": "2", "NumTopTen": "2", "MinRank": "2" }, { "Month": "3", "NumTopTen": "2", "MinRank": "2" } ] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"num":"9","dinstinctName":"9",
 "distinctMobile":"9"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,18 +311,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AF001_通讯录中无住宅所在地号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通讯录中有住宅所在地号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AF001_通讯录中有住宅所在地号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否有住宅所在地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,14 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AF001_通讯录中无住宅所在地号码（有逾期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF001_通讯录中无住宅所在地号码（无逾期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>过去三个月中没有号码进入前十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,10 +475,6 @@
   </si>
   <si>
     <t>有申请成功的订单但不在同一天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有未申请成功的牛大咖订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1343,6 +1303,134 @@
   </si>
   <si>
     <t>年龄等于22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF002_通讯录中有住宅所在地号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF002_通讯录中无住宅所在地号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF002_通讯录中无住宅所在地号码（有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF002_通讯录中无住宅所在地号码（无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "type":"主叫","records": [ { "Month": "1", "NumTopTen": "1", "MinRank": "2" }, { "Month": "2", "NumTopTen": "1", "MinRank": "2" }, { "Month": "3", "NumTopTen": "1", "MinRank": "2" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "type":"主叫","records": [ { "Month": "1", "NumTopTen": "1", "MinRank": "10" }, { "Month": "2", "NumTopTen": "1", "MinRank": "2" }, { "Month": "3", "NumTopTen": "1", "MinRank": "2" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "type":"主叫","records": [ { "Month": "1", "NumTopTen": "1", "MinRank": "11" }, { "Month": "2", "NumTopTen": "1", "MinRank": "2" }, { "Month": "3", "NumTopTen": "1", "MinRank": "2" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"主叫", "records": [ { "Month": "1", "NumTopTen": "1", "MinRank": "2" }, { "Month": "2", "NumTopTen": "1", "MinRank": "2" }, { "Month": "3", "NumTopTen": "1", "MinRank": "2" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "type":"被叫","records": [ { "Month": "1", "NumTopTen": "1", "MinRank": "2" }, { "Month": "2", "NumTopTen": "1", "MinRank": "2" }, { "Month": "3", "NumTopTen": "1", "MinRank": "2" } ] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学业信息全部匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"hasEduInfo":"Y","schoolSame":"Y","degreeSame":"Y","enterTimeSame":"Y","graduateTimeSame":"Y"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"hasEduInfo":"Y","schoolSame":"N","degreeSame":"Y","enterTimeSame":"Y","graduateTimeSame":"Y"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"hasEduInfo":"Y","schoolSame":"Y","degreeSame":"N","enterTimeSame":"Y","graduateTimeSame":"Y"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"hasEduInfo":"Y","schoolSame":"Y","degreeSame":"Y","enterTimeSame":"N","graduateTimeSame":"Y"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"hasEduInfo":"Y","schoolSame":"Y","degreeSame":"Y","enterTimeSame":"Y","graduateTimeSame":"N"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"hasEduInfo":"N","schoolSame":"Y","degreeSame":"Y","enterTimeSame":"Y","graduateTimeSame":"Y"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校名称不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入学时间不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业时间不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未查询到学历信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学业信息全部匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU003_学业信息全部匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU003_学校名称不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU003_学历不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU003_入学时间不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU003_毕业时间不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU003_未查询到学历信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历白名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU003_未查询到学历信息(学历白名单)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1350,7 +1438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1360,6 +1448,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1386,7 +1489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1414,6 +1517,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1716,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:A51"/>
+    <sheetView topLeftCell="I43" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1735,66 +1848,70 @@
     <col min="10" max="10" width="52.625" customWidth="1"/>
     <col min="11" max="11" width="29.125" customWidth="1"/>
     <col min="12" max="12" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.5" customWidth="1"/>
-    <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.125" customWidth="1"/>
+    <col min="15" max="15" width="33.5" customWidth="1"/>
+    <col min="16" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>267</v>
+        <v>339</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1803,12 +1920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1817,12 +1934,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1831,56 +1948,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1894,12 +2011,12 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1908,17 +2025,17 @@
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>322</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1927,17 +2044,17 @@
         <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -1946,17 +2063,17 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -1965,17 +2082,17 @@
         <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1984,570 +2101,650 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>324</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>325</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>322</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J35" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J37" s="5" t="s">
+      <c r="B39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="B40" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K41" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L44" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M46" s="9">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M47" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M48" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M49" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M50" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M51" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M52" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M53" s="9">
         <v>49</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>258</v>
+        <v>340</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="M54" s="9"/>
+      <c r="N54" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c r="N55" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="M56" s="9"/>
+      <c r="N56" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c r="N57" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N58" s="4"/>
-    </row>
-    <row r="59" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="M58" s="9"/>
+      <c r="N58" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="O59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M59" s="9"/>
+      <c r="N59" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O64" s="4"/>
+    </row>
+    <row r="65" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
+      <c r="B68" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>284</v>
+      <c r="Q68" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2559,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103:B109"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2576,1785 +2773,1785 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="F16" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>61</v>
+      <c r="F17" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B25" s="4">
         <v>0</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B40" s="4">
         <v>0</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B49" s="4">
         <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B50" s="4">
         <v>0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B51" s="4">
         <v>0</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B52" s="4">
         <v>0</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B53" s="4">
         <v>0</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B54" s="4">
         <v>0</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B55" s="4">
         <v>0</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B56" s="4">
         <v>0</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B57" s="4">
         <v>0</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B58" s="4">
         <v>0</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B59" s="4">
         <v>0</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B60" s="4">
         <v>0</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B61" s="4">
         <v>0</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B62" s="4">
         <v>0</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B63" s="4">
         <v>0</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B64" s="4">
         <v>0</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B65" s="4">
         <v>0</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B66" s="4">
         <v>0</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B67" s="4">
         <v>0</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B68" s="4">
         <v>0</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B69" s="4">
         <v>0</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B70" s="4">
         <v>0</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B71" s="4">
         <v>0</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B72" s="4">
         <v>0</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B73" s="4">
         <v>0</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B74" s="4">
         <v>0</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B75" s="4">
         <v>0</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B76" s="4">
         <v>0</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B77" s="4">
         <v>0</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B78" s="4">
         <v>0</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B79" s="4">
         <v>0</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B80" s="4">
         <v>0</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B81" s="4">
         <v>0</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B82" s="4">
         <v>0</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B83" s="4">
         <v>0</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B84" s="4">
         <v>0</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B85" s="4">
         <v>0</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B86" s="4">
         <v>0</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="B87" s="4">
         <v>0</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>270</v>
+        <v>341</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="B88" s="4">
         <v>0</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="B89" s="4">
         <v>0</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>56</v>
@@ -4362,39 +4559,39 @@
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>274</v>
+        <v>345</v>
       </c>
       <c r="B90" s="4">
         <v>0</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>275</v>
+        <v>346</v>
       </c>
       <c r="B91" s="4">
         <v>0</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>56</v>
@@ -4402,79 +4599,79 @@
     </row>
     <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="B92" s="4">
         <v>0</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>290</v>
+        <v>349</v>
       </c>
       <c r="B93" s="4">
         <v>0</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>130</v>
+        <v>348</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="B94" s="4">
         <v>0</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="B95" s="4">
         <v>0</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>56</v>
@@ -4482,79 +4679,79 @@
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B96" s="4">
         <v>0</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="B97" s="4">
         <v>0</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="B98" s="4">
         <v>0</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B99" s="4">
         <v>0</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>56</v>
@@ -4562,39 +4759,39 @@
     </row>
     <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="B100" s="4">
         <v>0</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>303</v>
+        <v>120</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>307</v>
+        <v>249</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="B101" s="4">
         <v>0</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>303</v>
+        <v>48</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>56</v>
@@ -4602,39 +4799,39 @@
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="B102" s="4">
         <v>0</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="B103" s="4">
         <v>0</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>311</v>
+        <v>66</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>56</v>
@@ -4642,79 +4839,79 @@
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="B104" s="4">
         <v>0</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>311</v>
+        <v>120</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="B105" s="4">
         <v>0</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>311</v>
+        <v>48</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="B106" s="4">
         <v>0</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>311</v>
+        <v>48</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="B107" s="4">
         <v>0</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>56</v>
@@ -4722,42 +4919,182 @@
     </row>
     <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="B108" s="4">
         <v>0</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B109" s="4">
         <v>0</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>323</v>
+        <v>48</v>
       </c>
       <c r="D109" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>56</v>
+      <c r="B113" s="4">
+        <v>0</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B116" s="4">
+        <v>0</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/NDK.xlsx
+++ b/NDK.xlsx
@@ -1831,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="I43" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2758,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2822,7 +2822,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>48</v>

--- a/NDK.xlsx
+++ b/NDK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="14805" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="NDK数据生成" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="351">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1431,6 +1431,11 @@
   </si>
   <si>
     <t>AU003_未查询到学历信息(学历白名单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"num":"2","dinstinctName":"2",
+"distinctMobile":"2"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1831,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2057,7 +2062,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
@@ -2758,7 +2763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/NDK.xlsx
+++ b/NDK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="240" yWindow="375" windowWidth="14805" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NDK数据生成" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="363">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -875,24 +875,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>近一个月主叫催收号码次数为3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"l1mwdcnTtimesout":"3",
-"l3mwdcnTnumsconF":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"l1mwdcnTtimesout":"4",
-"l3mwdcnTnumsconF":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近一个月主叫催收号码次数为4次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>近三个月与几家委外催收机构号码有过联系0次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -914,14 +896,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AF015_近一个月主叫催收号码次数为3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF015_近一个月主叫催收号码次数为4次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AF016_近三个月与几家委外催收机构号码有过联系0次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,22 +917,6 @@
   </si>
   <si>
     <t>AF014_90天外主叫过紧急联系人（有成功的牛小宝订单）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF015_近一个月主叫催收号码次数为4次（历史订单中有逾期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF015_近一个月主叫催收号码次数为4次（历史订单中无逾期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF015_近一个月主叫催收号码次数为4次（有失败的牛大款订单）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF015_近一个月主叫催收号码次数为4次（有成功的牛小宝订单）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1436,6 +1394,97 @@
   <si>
     <t>{"num":"2","dinstinctName":"2",
 "distinctMobile":"2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近一个月主叫催收号码次数为1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近一个月主叫催收号码次数为2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"l1mwdcnTtimesout":"1",
+"l3mwdcnTnumsconF":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"l1mwdcnTtimesout":"2",
+"l3mwdcnTnumsconF":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为2次（历史订单中有逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为2次（历史订单中无逾期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为2次（有失败的牛大款订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为2次（有成功的牛小宝订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史逾期5天订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史逾期5天订单（牛小宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU013_历史逾期5天订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU013_历史逾期5天订单（牛小宝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AU013_历史逾期4天订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史逾期4天订单（牛大咖）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF015_近一个月主叫催收号码次数为0次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近一个月主叫催收号码次数为0次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"l1mwdcnTtimesout":"0",
+"l3mwdcnTnumsconF":"0"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1834,10 +1883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="I31" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1896,19 +1945,19 @@
         <v>211</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2030,7 +2079,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2049,7 +2098,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2062,7 +2111,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
@@ -2106,7 +2155,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2125,7 +2174,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2144,7 +2193,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2163,7 +2212,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="J17" s="2"/>
     </row>
@@ -2241,7 +2290,7 @@
         <v>102</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -2252,7 +2301,7 @@
         <v>102</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
@@ -2445,311 +2494,331 @@
     </row>
     <row r="42" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>212</v>
+        <v>361</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="K42" s="5"/>
       <c r="L42" s="5" t="s">
-        <v>213</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>215</v>
+        <v>341</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>102</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>214</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>102</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>210</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>102</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M46" s="9">
-        <v>17</v>
-      </c>
-      <c r="N46" s="9"/>
+      <c r="L46" s="5" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>295</v>
+        <v>224</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>102</v>
       </c>
       <c r="M47" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N47" s="9"/>
     </row>
     <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>102</v>
       </c>
       <c r="M48" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N48" s="9"/>
     </row>
     <row r="49" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>102</v>
       </c>
       <c r="M49" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N49" s="9"/>
     </row>
     <row r="50" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>102</v>
       </c>
       <c r="M50" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N50" s="9"/>
     </row>
     <row r="51" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>102</v>
       </c>
       <c r="M51" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N51" s="9"/>
     </row>
     <row r="52" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>102</v>
       </c>
       <c r="M52" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N52" s="9"/>
     </row>
     <row r="53" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>102</v>
       </c>
       <c r="M53" s="9">
+        <v>50</v>
+      </c>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M54" s="9">
         <v>49</v>
       </c>
-      <c r="N53" s="9"/>
-    </row>
-    <row r="54" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M54" s="9"/>
-      <c r="N54" s="13" t="s">
-        <v>328</v>
-      </c>
+      <c r="N54" s="9"/>
     </row>
     <row r="55" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>102</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="13" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>102</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="13" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>102</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="13" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>102</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="13" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>102</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="13" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="O60" s="2" t="s">
-        <v>253</v>
+      <c r="M60" s="9"/>
+      <c r="N60" s="13" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>102</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>102</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>102</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="O64" s="4"/>
-    </row>
-    <row r="65" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="O64" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P65" s="4" t="s">
-        <v>273</v>
-      </c>
+      <c r="O65" s="4"/>
     </row>
     <row r="66" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>102</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q67" s="4" t="s">
-        <v>273</v>
+        <v>102</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2761,10 +2830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2827,7 +2896,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>48</v>
@@ -2944,7 +3013,7 @@
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -2964,7 +3033,7 @@
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -2984,7 +3053,7 @@
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -3004,7 +3073,7 @@
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -4024,7 +4093,7 @@
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B63" s="4">
         <v>0</v>
@@ -4044,7 +4113,7 @@
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B64" s="4">
         <v>0</v>
@@ -4064,7 +4133,7 @@
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B65" s="4">
         <v>0</v>
@@ -4084,7 +4153,7 @@
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B66" s="4">
         <v>0</v>
@@ -4104,7 +4173,7 @@
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="B67" s="4">
         <v>0</v>
@@ -4113,10 +4182,10 @@
         <v>48</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>212</v>
+        <v>361</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>51</v>
@@ -4124,7 +4193,7 @@
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>222</v>
+        <v>345</v>
       </c>
       <c r="B68" s="4">
         <v>0</v>
@@ -4133,10 +4202,10 @@
         <v>48</v>
       </c>
       <c r="D68" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>56</v>
@@ -4144,39 +4213,39 @@
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>229</v>
+        <v>346</v>
       </c>
       <c r="B69" s="4">
         <v>0</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="F69" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>230</v>
+        <v>347</v>
       </c>
       <c r="B70" s="4">
         <v>0</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="D70" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>51</v>
@@ -4184,67 +4253,67 @@
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>231</v>
+        <v>348</v>
       </c>
       <c r="B71" s="4">
         <v>0</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="F71" s="4" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>232</v>
+        <v>349</v>
       </c>
       <c r="B72" s="4">
         <v>0</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D72" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="F72" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="B73" s="4">
-        <v>0</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B74" s="4">
         <v>0</v>
@@ -4253,50 +4322,50 @@
         <v>48</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="B75" s="4">
         <v>0</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>51</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B76" s="4">
         <v>0</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>51</v>
@@ -4304,39 +4373,39 @@
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B77" s="4">
         <v>0</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B78" s="4">
         <v>0</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>56</v>
@@ -4344,19 +4413,19 @@
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B79" s="4">
         <v>0</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>56</v>
@@ -4364,7 +4433,7 @@
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B80" s="4">
         <v>0</v>
@@ -4373,18 +4442,18 @@
         <v>48</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B81" s="4">
         <v>0</v>
@@ -4393,18 +4462,18 @@
         <v>48</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B82" s="4">
         <v>0</v>
@@ -4413,50 +4482,50 @@
         <v>48</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B83" s="4">
         <v>0</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B84" s="4">
         <v>0</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>56</v>
@@ -4464,19 +4533,19 @@
     </row>
     <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B85" s="4">
         <v>0</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>56</v>
@@ -4484,19 +4553,19 @@
     </row>
     <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B86" s="4">
         <v>0</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>56</v>
@@ -4504,27 +4573,27 @@
     </row>
     <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>342</v>
+        <v>259</v>
       </c>
       <c r="B87" s="4">
         <v>0</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>327</v>
+        <v>224</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>341</v>
+        <v>229</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B88" s="4">
         <v>0</v>
@@ -4533,18 +4602,18 @@
         <v>48</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B89" s="4">
         <v>0</v>
@@ -4553,10 +4622,10 @@
         <v>48</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>56</v>
@@ -4564,7 +4633,7 @@
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B90" s="4">
         <v>0</v>
@@ -4573,18 +4642,18 @@
         <v>48</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B91" s="4">
         <v>0</v>
@@ -4593,18 +4662,18 @@
         <v>48</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B92" s="4">
         <v>0</v>
@@ -4613,10 +4682,10 @@
         <v>48</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>56</v>
@@ -4624,47 +4693,47 @@
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B93" s="4">
         <v>0</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>348</v>
+        <v>48</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>261</v>
+        <v>339</v>
       </c>
       <c r="B94" s="4">
         <v>0</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>48</v>
+        <v>338</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B95" s="4">
         <v>0</v>
@@ -4673,10 +4742,10 @@
         <v>48</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>56</v>
@@ -4684,7 +4753,7 @@
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B96" s="4">
         <v>0</v>
@@ -4693,18 +4762,18 @@
         <v>48</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B97" s="4">
         <v>0</v>
@@ -4713,10 +4782,10 @@
         <v>48</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>51</v>
@@ -4724,7 +4793,7 @@
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B98" s="4">
         <v>0</v>
@@ -4733,10 +4802,10 @@
         <v>48</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>51</v>
@@ -4744,39 +4813,39 @@
     </row>
     <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B99" s="4">
         <v>0</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D99" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="F99" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B100" s="4">
         <v>0</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D100" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>56</v>
@@ -4784,19 +4853,19 @@
     </row>
     <row r="101" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B101" s="4">
         <v>0</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>56</v>
@@ -4804,7 +4873,7 @@
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B102" s="4">
         <v>0</v>
@@ -4813,50 +4882,50 @@
         <v>48</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B103" s="4">
         <v>0</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B104" s="4">
         <v>0</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>56</v>
@@ -4864,19 +4933,19 @@
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B105" s="4">
         <v>0</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>56</v>
@@ -4884,7 +4953,7 @@
     </row>
     <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B106" s="4">
         <v>0</v>
@@ -4893,70 +4962,70 @@
         <v>48</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="B107" s="4">
         <v>0</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>293</v>
+        <v>48</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B108" s="4">
         <v>0</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B109" s="4">
         <v>0</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>48</v>
+        <v>283</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>51</v>
@@ -4964,19 +5033,19 @@
     </row>
     <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B110" s="4">
         <v>0</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>301</v>
+        <v>48</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>51</v>
@@ -4984,39 +5053,39 @@
     </row>
     <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B111" s="4">
         <v>0</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B112" s="4">
         <v>0</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>56</v>
@@ -5024,39 +5093,39 @@
     </row>
     <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B113" s="4">
         <v>0</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B114" s="4">
         <v>0</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>51</v>
@@ -5064,19 +5133,19 @@
     </row>
     <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B115" s="4">
         <v>0</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>51</v>
@@ -5084,21 +5153,101 @@
     </row>
     <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B116" s="4">
         <v>0</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F116" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B118" s="4">
+        <v>1</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>51</v>
       </c>
     </row>
